--- a/Code/Results/Cases/Case_1_174/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_174/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2700465517690276</v>
+        <v>0.1424953361892989</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.001045317936403833</v>
+        <v>0.0004299426552520913</v>
       </c>
       <c r="E2">
-        <v>0.02442182250402603</v>
+        <v>0.07991781540580511</v>
       </c>
       <c r="F2">
-        <v>1.171882718715764</v>
+        <v>0.5932467633878105</v>
       </c>
       <c r="G2">
-        <v>0.0007385110227277362</v>
+        <v>0.002345679738735331</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.184155609449377</v>
+        <v>0.6979156703716711</v>
       </c>
       <c r="N2">
-        <v>2.12828904280866</v>
+        <v>1.437313047148649</v>
       </c>
       <c r="O2">
-        <v>3.689850145540163</v>
+        <v>1.897006763755314</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2363935904910619</v>
+        <v>0.1329157298043668</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0009078225922865002</v>
+        <v>0.0003964902536868209</v>
       </c>
       <c r="E3">
-        <v>0.02590665337205778</v>
+        <v>0.08287708702156316</v>
       </c>
       <c r="F3">
-        <v>1.017088534176963</v>
+        <v>0.5571254389356568</v>
       </c>
       <c r="G3">
-        <v>0.0007443944722520159</v>
+        <v>0.002349592272756002</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.895646113141197</v>
+        <v>0.6114803225277541</v>
       </c>
       <c r="N3">
-        <v>1.96493301646305</v>
+        <v>1.386698451232718</v>
       </c>
       <c r="O3">
-        <v>3.202281272050584</v>
+        <v>1.784941032402287</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2158467637811725</v>
+        <v>0.1271001053738843</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0008281666932363763</v>
+        <v>0.0003761996499376252</v>
       </c>
       <c r="E4">
-        <v>0.0272799093801428</v>
+        <v>0.08484063289508459</v>
       </c>
       <c r="F4">
-        <v>0.9239571819125274</v>
+        <v>0.5353679329008258</v>
       </c>
       <c r="G4">
-        <v>0.0007481146313480956</v>
+        <v>0.00235212330709289</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.719300455760873</v>
+        <v>0.5583235224461163</v>
       </c>
       <c r="N4">
-        <v>1.865772165162923</v>
+        <v>1.356146371068775</v>
       </c>
       <c r="O4">
-        <v>2.909288941317442</v>
+        <v>1.717523497416835</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.207500374162862</v>
+        <v>0.1247470728135198</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0007967065716005806</v>
+        <v>0.0003679924427686387</v>
       </c>
       <c r="E5">
-        <v>0.02794641185504787</v>
+        <v>0.08567735536146248</v>
       </c>
       <c r="F5">
-        <v>0.8864300337904183</v>
+        <v>0.5266066972169909</v>
       </c>
       <c r="G5">
-        <v>0.0007496586300030164</v>
+        <v>0.002353187199389955</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.647593312265954</v>
+        <v>0.5366408634389899</v>
       </c>
       <c r="N5">
-        <v>1.825638490268886</v>
+        <v>1.343830187433582</v>
       </c>
       <c r="O5">
-        <v>2.791308048485007</v>
+        <v>1.690397430685408</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2061159956208627</v>
+        <v>0.124357379393004</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0007915377325113937</v>
+        <v>0.0003666333134066946</v>
       </c>
       <c r="E6">
-        <v>0.02806328436084726</v>
+        <v>0.08581849232594951</v>
       </c>
       <c r="F6">
-        <v>0.8802227536858709</v>
+        <v>0.5251582274959219</v>
       </c>
       <c r="G6">
-        <v>0.0007499167270130911</v>
+        <v>0.00235336582243832</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.635694490394357</v>
+        <v>0.5330392336333318</v>
       </c>
       <c r="N6">
-        <v>1.818990624381456</v>
+        <v>1.341793246235113</v>
       </c>
       <c r="O6">
-        <v>2.771797693649972</v>
+        <v>1.685914054317834</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2157340970785242</v>
+        <v>0.1270683029193833</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0008277386046939839</v>
+        <v>0.0003760887179913297</v>
       </c>
       <c r="E7">
-        <v>0.02728847691166258</v>
+        <v>0.08485176957115215</v>
       </c>
       <c r="F7">
-        <v>0.9234494299529246</v>
+        <v>0.5352493511896341</v>
       </c>
       <c r="G7">
-        <v>0.0007481353396911431</v>
+        <v>0.002352137523606063</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.718332818155943</v>
+        <v>0.5580311860887832</v>
       </c>
       <c r="N7">
-        <v>1.86522980879991</v>
+        <v>1.355979725467307</v>
       </c>
       <c r="O7">
-        <v>2.907692315233135</v>
+        <v>1.717156263897948</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.258417262517284</v>
+        <v>0.139178652560517</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0009967926011498207</v>
+        <v>0.0004183556874206573</v>
       </c>
       <c r="E8">
-        <v>0.02483225806179234</v>
+        <v>0.08090758485342597</v>
       </c>
       <c r="F8">
-        <v>1.118077403962332</v>
+        <v>0.5807042463160599</v>
       </c>
       <c r="G8">
-        <v>0.0007405178586365269</v>
+        <v>0.002347002128521032</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.084482370437485</v>
+        <v>0.668130752854978</v>
       </c>
       <c r="N8">
-        <v>2.071719857164112</v>
+        <v>1.419753184325828</v>
       </c>
       <c r="O8">
-        <v>3.520295470753695</v>
+        <v>1.858076060527935</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3431695314811236</v>
+        <v>0.1634450174328919</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.001376593692347328</v>
+        <v>0.0005032886288409699</v>
       </c>
       <c r="E9">
-        <v>0.02412909643970451</v>
+        <v>0.07434860355879103</v>
       </c>
       <c r="F9">
-        <v>1.51770231149149</v>
+        <v>0.6732227270668432</v>
       </c>
       <c r="G9">
-        <v>0.0007263893028268104</v>
+        <v>0.002337948122705017</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2.811177721760998</v>
+        <v>0.8833456807207654</v>
       </c>
       <c r="N9">
-        <v>2.48629115105615</v>
+        <v>1.548906929911681</v>
       </c>
       <c r="O9">
-        <v>4.781472786545805</v>
+        <v>2.145597535330467</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.406271745681579</v>
+        <v>0.1815804850218825</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.001702398745573319</v>
+        <v>0.0005670481755615242</v>
       </c>
       <c r="E10">
-        <v>0.02681268147982152</v>
+        <v>0.07026389571659841</v>
       </c>
       <c r="F10">
-        <v>1.826530956186119</v>
+        <v>0.7433205311375986</v>
       </c>
       <c r="G10">
-        <v>0.0007164333618271399</v>
+        <v>0.002331909010651221</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>3.354023867471525</v>
+        <v>1.041040522520674</v>
       </c>
       <c r="N10">
-        <v>2.797697165514933</v>
+        <v>1.646202818567332</v>
       </c>
       <c r="O10">
-        <v>5.758807883546865</v>
+        <v>2.36386996329054</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4352058405775097</v>
+        <v>0.1898956811295278</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.001865576007077152</v>
+        <v>0.0005963762129219674</v>
       </c>
       <c r="E11">
-        <v>0.02890349568761863</v>
+        <v>0.06856886495660497</v>
       </c>
       <c r="F11">
-        <v>1.971404571030646</v>
+        <v>0.775685224190596</v>
       </c>
       <c r="G11">
-        <v>0.0007119791006333179</v>
+        <v>0.002329293288163067</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>3.603854296150018</v>
+        <v>1.112688615605535</v>
       </c>
       <c r="N11">
-        <v>2.941078394336643</v>
+        <v>1.6909699208951</v>
       </c>
       <c r="O11">
-        <v>6.218027990877431</v>
+        <v>2.464742455019348</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4461992506745815</v>
+        <v>0.1930536271213015</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.001930009783960074</v>
+        <v>0.0006075307549693321</v>
       </c>
       <c r="E12">
-        <v>0.0298369987956093</v>
+        <v>0.06795077603490007</v>
       </c>
       <c r="F12">
-        <v>2.02699587955135</v>
+        <v>0.7880104474648419</v>
       </c>
       <c r="G12">
-        <v>0.0007103015402868439</v>
+        <v>0.002328321580814079</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>3.698961786199291</v>
+        <v>1.139806921705983</v>
       </c>
       <c r="N12">
-        <v>2.995641396201904</v>
+        <v>1.707993225147618</v>
       </c>
       <c r="O12">
-        <v>6.394362936141931</v>
+        <v>2.503170763403546</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4438299273953987</v>
+        <v>0.192373103071688</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.001916006582078467</v>
+        <v>0.0006051262258424117</v>
       </c>
       <c r="E13">
-        <v>0.0296293613031402</v>
+        <v>0.06808282960563439</v>
       </c>
       <c r="F13">
-        <v>2.014989077165424</v>
+        <v>0.7853528892544688</v>
       </c>
       <c r="G13">
-        <v>0.0007106624519566118</v>
+        <v>0.002328530020276976</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>3.678454853146818</v>
+        <v>1.133967109040384</v>
       </c>
       <c r="N13">
-        <v>2.983878033017021</v>
+        <v>1.704323825273605</v>
       </c>
       <c r="O13">
-        <v>6.356271859497554</v>
+        <v>2.49488425870868</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4361095167759572</v>
+        <v>0.1901553049249003</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.001870820948406404</v>
+        <v>0.0005972929162041396</v>
       </c>
       <c r="E14">
-        <v>0.02897735216656727</v>
+        <v>0.06851753590111898</v>
       </c>
       <c r="F14">
-        <v>1.975962840882417</v>
+        <v>0.7766978316513047</v>
       </c>
       <c r="G14">
-        <v>0.0007118409126161153</v>
+        <v>0.002329212968710288</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>3.611668246495896</v>
+        <v>1.114919924375073</v>
       </c>
       <c r="N14">
-        <v>2.945561839267924</v>
+        <v>1.692369026707382</v>
       </c>
       <c r="O14">
-        <v>6.232484250230243</v>
+        <v>2.467899346638205</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4313854391595413</v>
+        <v>0.1887980259508311</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.001843503519879164</v>
+        <v>0.0005925011900451693</v>
       </c>
       <c r="E15">
-        <v>0.0285969661442369</v>
+        <v>0.06878691293332473</v>
       </c>
       <c r="F15">
-        <v>1.952156482176207</v>
+        <v>0.7714054242384378</v>
       </c>
       <c r="G15">
-        <v>0.0007125638984196088</v>
+        <v>0.002329633741001528</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>3.570827678251732</v>
+        <v>1.103251227676083</v>
       </c>
       <c r="N15">
-        <v>2.922127549222637</v>
+        <v>1.6850555545806</v>
       </c>
       <c r="O15">
-        <v>6.156988896363771</v>
+        <v>2.451400361737797</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.404385755614868</v>
+        <v>0.1810383617286391</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.001692075876322363</v>
+        <v>0.0005651382078308842</v>
       </c>
       <c r="E16">
-        <v>0.02669492866081846</v>
+        <v>0.07037798019597474</v>
       </c>
       <c r="F16">
-        <v>1.817159687856275</v>
+        <v>0.7412150899513392</v>
       </c>
       <c r="G16">
-        <v>0.0007167258314125541</v>
+        <v>0.002332082591947502</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>3.337762151221114</v>
+        <v>1.036356326608924</v>
       </c>
       <c r="N16">
-        <v>2.788363178188348</v>
+        <v>1.643287217421204</v>
       </c>
       <c r="O16">
-        <v>5.729118867838679</v>
+        <v>2.357309742578934</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3878835143047468</v>
+        <v>0.1762946184794174</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.001603336076309247</v>
+        <v>0.0005484362326200198</v>
       </c>
       <c r="E17">
-        <v>0.02576217845611595</v>
+        <v>0.07139605912582248</v>
       </c>
       <c r="F17">
-        <v>1.73553467500075</v>
+        <v>0.722817030495122</v>
       </c>
       <c r="G17">
-        <v>0.0007192971170194639</v>
+        <v>0.002333618491805741</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>3.195582054894373</v>
+        <v>0.9952954763112416</v>
       </c>
       <c r="N17">
-        <v>2.706757640201459</v>
+        <v>1.617792125056582</v>
       </c>
       <c r="O17">
-        <v>5.470607243564473</v>
+        <v>2.299994803115737</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3784131332057257</v>
+        <v>0.1735723008559233</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.001553670132826923</v>
+        <v>0.0005388600111704278</v>
       </c>
       <c r="E18">
-        <v>0.02530647368715044</v>
+        <v>0.07199696554792467</v>
       </c>
       <c r="F18">
-        <v>1.688992335616788</v>
+        <v>0.7122797857831813</v>
       </c>
       <c r="G18">
-        <v>0.0007207831917149837</v>
+        <v>0.002334514284262261</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>3.114069764738986</v>
+        <v>0.9716701059242894</v>
       </c>
       <c r="N18">
-        <v>2.659980974562302</v>
+        <v>1.603175828286851</v>
       </c>
       <c r="O18">
-        <v>5.323272654185018</v>
+        <v>2.267177234223823</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3752101657471343</v>
+        <v>0.1726516354098635</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.001537076642574853</v>
+        <v>0.000535622810675207</v>
       </c>
       <c r="E19">
-        <v>0.02516557900659322</v>
+        <v>0.07220304594288862</v>
       </c>
       <c r="F19">
-        <v>1.673300793422626</v>
+        <v>0.7087197301220698</v>
       </c>
       <c r="G19">
-        <v>0.0007212876226346318</v>
+        <v>0.002334819713929099</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>3.08651429855972</v>
+        <v>0.9636695622874072</v>
       </c>
       <c r="N19">
-        <v>2.644170212288628</v>
+        <v>1.598235270037293</v>
       </c>
       <c r="O19">
-        <v>5.273610714936012</v>
+        <v>2.256091178172198</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3896379776029164</v>
+        <v>0.1767989623493804</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.001612637006076056</v>
+        <v>0.0005502110340138699</v>
       </c>
       <c r="E20">
-        <v>0.0258529955235911</v>
+        <v>0.07128609349157955</v>
       </c>
       <c r="F20">
-        <v>1.744181065806131</v>
+        <v>0.7247708892399061</v>
       </c>
       <c r="G20">
-        <v>0.0007190226712882135</v>
+        <v>0.002333453711724887</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>3.210689248430569</v>
+        <v>0.9996673327339636</v>
       </c>
       <c r="N20">
-        <v>2.715427918992702</v>
+        <v>1.620501187190825</v>
       </c>
       <c r="O20">
-        <v>5.497983757424947</v>
+        <v>2.306080688805764</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4383761608414147</v>
+        <v>0.190806479151945</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.001884017026732465</v>
+        <v>0.0005995924112927042</v>
       </c>
       <c r="E21">
-        <v>0.02916487336693763</v>
+        <v>0.06838920407091642</v>
       </c>
       <c r="F21">
-        <v>1.987405104049088</v>
+        <v>0.7792381411566538</v>
       </c>
       <c r="G21">
-        <v>0.0007114945346156389</v>
+        <v>0.00232901186062402</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>3.631270717319197</v>
+        <v>1.1205149091723</v>
       </c>
       <c r="N21">
-        <v>2.956808800501022</v>
+        <v>1.695878529578522</v>
       </c>
       <c r="O21">
-        <v>6.268774636496744</v>
+        <v>2.47581920107217</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4704452358812432</v>
+        <v>0.2000144978829184</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.002077072108034983</v>
+        <v>0.0006321506626214557</v>
       </c>
       <c r="E22">
-        <v>0.03216484288545196</v>
+        <v>0.06663469428964142</v>
       </c>
       <c r="F22">
-        <v>2.150680762272714</v>
+        <v>0.8152406480043481</v>
       </c>
       <c r="G22">
-        <v>0.0007066270605544422</v>
+        <v>0.002326218447944428</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>3.90912024610671</v>
+        <v>1.199418157179153</v>
       </c>
       <c r="N22">
-        <v>3.116135911651099</v>
+        <v>1.745554809723473</v>
       </c>
       <c r="O22">
-        <v>6.786927277678615</v>
+        <v>2.588095645181738</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.45330828511932</v>
+        <v>0.1950952028399655</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.001972413994412392</v>
+        <v>0.0006147469224728752</v>
       </c>
       <c r="E23">
-        <v>0.0304812297249164</v>
+        <v>0.06755830313418798</v>
       </c>
       <c r="F23">
-        <v>2.06310655350039</v>
+        <v>0.7959880930480807</v>
       </c>
       <c r="G23">
-        <v>0.0007092206776138579</v>
+        <v>0.002327699349673376</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>3.760522856437021</v>
+        <v>1.157313308303145</v>
       </c>
       <c r="N23">
-        <v>3.030949154545141</v>
+        <v>1.719004489371116</v>
       </c>
       <c r="O23">
-        <v>6.508941182948831</v>
+        <v>2.528047760697177</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3888447321521653</v>
+        <v>0.1765709331320835</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.00160842788125759</v>
+        <v>0.000549408566016929</v>
       </c>
       <c r="E24">
-        <v>0.02581168747892981</v>
+        <v>0.07133576038953926</v>
       </c>
       <c r="F24">
-        <v>1.740270840859694</v>
+        <v>0.7238874250313643</v>
       </c>
       <c r="G24">
-        <v>0.0007191467237592819</v>
+        <v>0.002333528169105112</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>3.203858579568092</v>
+        <v>0.9976908754013039</v>
       </c>
       <c r="N24">
-        <v>2.711507653111312</v>
+        <v>1.619276291812184</v>
       </c>
       <c r="O24">
-        <v>5.48560285105674</v>
+        <v>2.303328844109672</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3201099414000339</v>
+        <v>0.1568257795625811</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.001267059953269367</v>
+        <v>0.0004800818385852779</v>
       </c>
       <c r="E25">
-        <v>0.02381171897371637</v>
+        <v>0.07599532664092834</v>
       </c>
       <c r="F25">
-        <v>1.407254106214992</v>
+        <v>0.6478255176706256</v>
       </c>
       <c r="G25">
-        <v>0.0007301315631023248</v>
+        <v>0.002340289355582686</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>2.613305025454153</v>
+        <v>0.8251985613386239</v>
       </c>
       <c r="N25">
-        <v>2.373014014446113</v>
+        <v>1.513538423053916</v>
       </c>
       <c r="O25">
-        <v>4.432494992809723</v>
+        <v>2.066596419009386</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_174/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_174/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1424953361892989</v>
+        <v>0.2700465517695676</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0004299426552520913</v>
+        <v>0.001045317936365642</v>
       </c>
       <c r="E2">
-        <v>0.07991781540580511</v>
+        <v>0.02442182250404379</v>
       </c>
       <c r="F2">
-        <v>0.5932467633878105</v>
+        <v>1.171882718715764</v>
       </c>
       <c r="G2">
-        <v>0.002345679738735331</v>
+        <v>0.0007385110227553374</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6979156703716711</v>
+        <v>2.184155609449377</v>
       </c>
       <c r="N2">
-        <v>1.437313047148649</v>
+        <v>2.12828904280866</v>
       </c>
       <c r="O2">
-        <v>1.897006763755314</v>
+        <v>3.689850145540163</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329157298043668</v>
+        <v>0.2363935904910051</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0003964902536868209</v>
+        <v>0.0009078225922145577</v>
       </c>
       <c r="E3">
-        <v>0.08287708702156316</v>
+        <v>0.02590665337205778</v>
       </c>
       <c r="F3">
-        <v>0.5571254389356568</v>
+        <v>1.017088534176978</v>
       </c>
       <c r="G3">
-        <v>0.002349592272756002</v>
+        <v>0.0007443944721538986</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6114803225277541</v>
+        <v>1.895646113141154</v>
       </c>
       <c r="N3">
-        <v>1.386698451232718</v>
+        <v>1.964933016463021</v>
       </c>
       <c r="O3">
-        <v>1.784941032402287</v>
+        <v>3.202281272050612</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1271001053738843</v>
+        <v>0.2158467637814141</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0003761996499376252</v>
+        <v>0.0008281666931244658</v>
       </c>
       <c r="E4">
-        <v>0.08484063289508459</v>
+        <v>0.02727990938012503</v>
       </c>
       <c r="F4">
-        <v>0.5353679329008258</v>
+        <v>0.9239571819125132</v>
       </c>
       <c r="G4">
-        <v>0.00235212330709289</v>
+        <v>0.0007481146313532657</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5583235224461163</v>
+        <v>1.719300455760859</v>
       </c>
       <c r="N4">
-        <v>1.356146371068775</v>
+        <v>1.865772165162952</v>
       </c>
       <c r="O4">
-        <v>1.717523497416835</v>
+        <v>2.909288941317442</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1247470728135198</v>
+        <v>0.2075003741631036</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0003679924427686387</v>
+        <v>0.0007967065715988042</v>
       </c>
       <c r="E5">
-        <v>0.08567735536146248</v>
+        <v>0.02794641185504432</v>
       </c>
       <c r="F5">
-        <v>0.5266066972169909</v>
+        <v>0.8864300337904041</v>
       </c>
       <c r="G5">
-        <v>0.002353187199389955</v>
+        <v>0.0007496586300028224</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5366408634389899</v>
+        <v>1.647593312265954</v>
       </c>
       <c r="N5">
-        <v>1.343830187433582</v>
+        <v>1.825638490268943</v>
       </c>
       <c r="O5">
-        <v>1.690397430685408</v>
+        <v>2.791308048485007</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.124357379393004</v>
+        <v>0.2061159956208911</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0003666333134066946</v>
+        <v>0.000791537732557579</v>
       </c>
       <c r="E6">
-        <v>0.08581849232594951</v>
+        <v>0.02806328436083305</v>
       </c>
       <c r="F6">
-        <v>0.5251582274959219</v>
+        <v>0.8802227536858709</v>
       </c>
       <c r="G6">
-        <v>0.00235336582243832</v>
+        <v>0.0007499167270125017</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5330392336333318</v>
+        <v>1.635694490394371</v>
       </c>
       <c r="N6">
-        <v>1.341793246235113</v>
+        <v>1.818990624381428</v>
       </c>
       <c r="O6">
-        <v>1.685914054317834</v>
+        <v>2.771797693650029</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1270683029193833</v>
+        <v>0.2157340970784531</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0003760887179913297</v>
+        <v>0.0008277386047632618</v>
       </c>
       <c r="E7">
-        <v>0.08485176957115215</v>
+        <v>0.02728847691166614</v>
       </c>
       <c r="F7">
-        <v>0.5352493511896341</v>
+        <v>0.9234494299529388</v>
       </c>
       <c r="G7">
-        <v>0.002352137523606063</v>
+        <v>0.0007481353396912774</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5580311860887832</v>
+        <v>1.718332818155943</v>
       </c>
       <c r="N7">
-        <v>1.355979725467307</v>
+        <v>1.865229808799853</v>
       </c>
       <c r="O7">
-        <v>1.717156263897948</v>
+        <v>2.907692315233078</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.139178652560517</v>
+        <v>0.2584172625172556</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0004183556874206573</v>
+        <v>0.0009967926010396866</v>
       </c>
       <c r="E8">
-        <v>0.08090758485342597</v>
+        <v>0.02483225806179057</v>
       </c>
       <c r="F8">
-        <v>0.5807042463160599</v>
+        <v>1.118077403962303</v>
       </c>
       <c r="G8">
-        <v>0.002347002128521032</v>
+        <v>0.0007405178586091158</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.668130752854978</v>
+        <v>2.08448237043747</v>
       </c>
       <c r="N8">
-        <v>1.419753184325828</v>
+        <v>2.07171985716397</v>
       </c>
       <c r="O8">
-        <v>1.858076060527935</v>
+        <v>3.520295470753695</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1634450174328919</v>
+        <v>0.3431695314809105</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0005032886288409699</v>
+        <v>0.001376593692262063</v>
       </c>
       <c r="E9">
-        <v>0.07434860355879103</v>
+        <v>0.0241290964396903</v>
       </c>
       <c r="F9">
-        <v>0.6732227270668432</v>
+        <v>1.517702311491504</v>
       </c>
       <c r="G9">
-        <v>0.002337948122705017</v>
+        <v>0.0007263893028261765</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8833456807207654</v>
+        <v>2.81117772176097</v>
       </c>
       <c r="N9">
-        <v>1.548906929911681</v>
+        <v>2.486291151056122</v>
       </c>
       <c r="O9">
-        <v>2.145597535330467</v>
+        <v>4.781472786545862</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1815804850218825</v>
+        <v>0.4062717456815932</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0005670481755615242</v>
+        <v>0.001702398745379696</v>
       </c>
       <c r="E10">
-        <v>0.07026389571659841</v>
+        <v>0.02681268147985882</v>
       </c>
       <c r="F10">
-        <v>0.7433205311375986</v>
+        <v>1.826530956186119</v>
       </c>
       <c r="G10">
-        <v>0.002331909010651221</v>
+        <v>0.0007164333617826772</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.041040522520674</v>
+        <v>3.35402386747154</v>
       </c>
       <c r="N10">
-        <v>1.646202818567332</v>
+        <v>2.797697165514904</v>
       </c>
       <c r="O10">
-        <v>2.36386996329054</v>
+        <v>5.758807883546979</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1898956811295278</v>
+        <v>0.435205840577737</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0005963762129219674</v>
+        <v>0.001865576006991887</v>
       </c>
       <c r="E11">
-        <v>0.06856886495660497</v>
+        <v>0.02890349568762929</v>
       </c>
       <c r="F11">
-        <v>0.775685224190596</v>
+        <v>1.971404571030661</v>
       </c>
       <c r="G11">
-        <v>0.002329293288163067</v>
+        <v>0.0007119791006062354</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.112688615605535</v>
+        <v>3.603854296150033</v>
       </c>
       <c r="N11">
-        <v>1.6909699208951</v>
+        <v>2.941078394336756</v>
       </c>
       <c r="O11">
-        <v>2.464742455019348</v>
+        <v>6.218027990877488</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1930536271213015</v>
+        <v>0.4461992506748516</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0006075307549693321</v>
+        <v>0.001930009783757569</v>
       </c>
       <c r="E12">
-        <v>0.06795077603490007</v>
+        <v>0.0298369987956093</v>
       </c>
       <c r="F12">
-        <v>0.7880104474648419</v>
+        <v>2.026995879551336</v>
       </c>
       <c r="G12">
-        <v>0.002328321580814079</v>
+        <v>0.0007103015401854805</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.139806921705983</v>
+        <v>3.698961786199277</v>
       </c>
       <c r="N12">
-        <v>1.707993225147618</v>
+        <v>2.99564139620179</v>
       </c>
       <c r="O12">
-        <v>2.503170763403546</v>
+        <v>6.394362936141988</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.192373103071688</v>
+        <v>0.4438299273954129</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0006051262258424117</v>
+        <v>0.001916006582176166</v>
       </c>
       <c r="E13">
-        <v>0.06808282960563439</v>
+        <v>0.02962936130313132</v>
       </c>
       <c r="F13">
-        <v>0.7853528892544688</v>
+        <v>2.014989077165424</v>
       </c>
       <c r="G13">
-        <v>0.002328530020276976</v>
+        <v>0.0007106624519572724</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.133967109040384</v>
+        <v>3.678454853146832</v>
       </c>
       <c r="N13">
-        <v>1.704323825273605</v>
+        <v>2.983878033017021</v>
       </c>
       <c r="O13">
-        <v>2.49488425870868</v>
+        <v>6.356271859497554</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1901553049249003</v>
+        <v>0.4361095167757156</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0005972929162041396</v>
+        <v>0.001870820948404628</v>
       </c>
       <c r="E14">
-        <v>0.06851753590111898</v>
+        <v>0.02897735216653352</v>
       </c>
       <c r="F14">
-        <v>0.7766978316513047</v>
+        <v>1.975962840882417</v>
       </c>
       <c r="G14">
-        <v>0.002329212968710288</v>
+        <v>0.0007118409125422568</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.114919924375073</v>
+        <v>3.611668246495881</v>
       </c>
       <c r="N14">
-        <v>1.692369026707382</v>
+        <v>2.945561839267924</v>
       </c>
       <c r="O14">
-        <v>2.467899346638205</v>
+        <v>6.232484250230243</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1887980259508311</v>
+        <v>0.4313854391599392</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0005925011900451693</v>
+        <v>0.001843503520001732</v>
       </c>
       <c r="E15">
-        <v>0.06878691293332473</v>
+        <v>0.02859696614423868</v>
       </c>
       <c r="F15">
-        <v>0.7714054242384378</v>
+        <v>1.952156482176193</v>
       </c>
       <c r="G15">
-        <v>0.002329633741001528</v>
+        <v>0.0007125638984191341</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.103251227676083</v>
+        <v>3.570827678251746</v>
       </c>
       <c r="N15">
-        <v>1.6850555545806</v>
+        <v>2.922127549222779</v>
       </c>
       <c r="O15">
-        <v>2.451400361737797</v>
+        <v>6.156988896363828</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1810383617286391</v>
+        <v>0.4043857556145838</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0005651382078308842</v>
+        <v>0.001692075876234433</v>
       </c>
       <c r="E16">
-        <v>0.07037798019597474</v>
+        <v>0.02669492866083978</v>
       </c>
       <c r="F16">
-        <v>0.7412150899513392</v>
+        <v>1.817159687856304</v>
       </c>
       <c r="G16">
-        <v>0.002332082591947502</v>
+        <v>0.0007167258313404005</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.036356326608924</v>
+        <v>3.337762151221128</v>
       </c>
       <c r="N16">
-        <v>1.643287217421204</v>
+        <v>2.788363178188348</v>
       </c>
       <c r="O16">
-        <v>2.357309742578934</v>
+        <v>5.729118867838679</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1762946184794174</v>
+        <v>0.3878835143049884</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0005484362326200198</v>
+        <v>0.001603336076394513</v>
       </c>
       <c r="E17">
-        <v>0.07139605912582248</v>
+        <v>0.02576217845609996</v>
       </c>
       <c r="F17">
-        <v>0.722817030495122</v>
+        <v>1.735534675000736</v>
       </c>
       <c r="G17">
-        <v>0.002333618491805741</v>
+        <v>0.0007192971169914487</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9952954763112416</v>
+        <v>3.195582054894388</v>
       </c>
       <c r="N17">
-        <v>1.617792125056582</v>
+        <v>2.706757640201602</v>
       </c>
       <c r="O17">
-        <v>2.299994803115737</v>
+        <v>5.470607243564473</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1735723008559233</v>
+        <v>0.3784131332055125</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0005388600111704278</v>
+        <v>0.001553670132889984</v>
       </c>
       <c r="E18">
-        <v>0.07199696554792467</v>
+        <v>0.02530647368712735</v>
       </c>
       <c r="F18">
-        <v>0.7122797857831813</v>
+        <v>1.688992335616774</v>
       </c>
       <c r="G18">
-        <v>0.002334514284262261</v>
+        <v>0.0007207831917699398</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9716701059242894</v>
+        <v>3.114069764739</v>
       </c>
       <c r="N18">
-        <v>1.603175828286851</v>
+        <v>2.659980974562302</v>
       </c>
       <c r="O18">
-        <v>2.267177234223823</v>
+        <v>5.323272654185075</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1726516354098635</v>
+        <v>0.3752101657473901</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.000535622810675207</v>
+        <v>0.001537076642573076</v>
       </c>
       <c r="E19">
-        <v>0.07220304594288862</v>
+        <v>0.02516557900659322</v>
       </c>
       <c r="F19">
-        <v>0.7087197301220698</v>
+        <v>1.673300793422626</v>
       </c>
       <c r="G19">
-        <v>0.002334819713929099</v>
+        <v>0.0007212876226620097</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.9636695622874072</v>
+        <v>3.08651429855972</v>
       </c>
       <c r="N19">
-        <v>1.598235270037293</v>
+        <v>2.644170212288572</v>
       </c>
       <c r="O19">
-        <v>2.256091178172198</v>
+        <v>5.273610714935955</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1767989623493804</v>
+        <v>0.389637977603158</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0005502110340138699</v>
+        <v>0.001612637005971251</v>
       </c>
       <c r="E20">
-        <v>0.07128609349157955</v>
+        <v>0.02585299552358933</v>
       </c>
       <c r="F20">
-        <v>0.7247708892399061</v>
+        <v>1.744181065806117</v>
       </c>
       <c r="G20">
-        <v>0.002333453711724887</v>
+        <v>0.0007190226712614483</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9996673327339636</v>
+        <v>3.210689248430583</v>
       </c>
       <c r="N20">
-        <v>1.620501187190825</v>
+        <v>2.715427918992702</v>
       </c>
       <c r="O20">
-        <v>2.306080688805764</v>
+        <v>5.497983757424947</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.190806479151945</v>
+        <v>0.4383761608414289</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0005995924112927042</v>
+        <v>0.001884017026728912</v>
       </c>
       <c r="E21">
-        <v>0.06838920407091642</v>
+        <v>0.02916487336695006</v>
       </c>
       <c r="F21">
-        <v>0.7792381411566538</v>
+        <v>1.987405104049103</v>
       </c>
       <c r="G21">
-        <v>0.00232901186062402</v>
+        <v>0.000711494534615122</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.1205149091723</v>
+        <v>3.631270717319197</v>
       </c>
       <c r="N21">
-        <v>1.695878529578522</v>
+        <v>2.956808800500909</v>
       </c>
       <c r="O21">
-        <v>2.47581920107217</v>
+        <v>6.268774636496744</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2000144978829184</v>
+        <v>0.4704452358808737</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0006321506626214557</v>
+        <v>0.002077072108034983</v>
       </c>
       <c r="E22">
-        <v>0.06663469428964142</v>
+        <v>0.03216484288547505</v>
       </c>
       <c r="F22">
-        <v>0.8152406480043481</v>
+        <v>2.150680762272714</v>
       </c>
       <c r="G22">
-        <v>0.002326218447944428</v>
+        <v>0.0007066270605537085</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.199418157179153</v>
+        <v>3.909120246106738</v>
       </c>
       <c r="N22">
-        <v>1.745554809723473</v>
+        <v>3.116135911651128</v>
       </c>
       <c r="O22">
-        <v>2.588095645181738</v>
+        <v>6.786927277678672</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1950952028399655</v>
+        <v>0.4533082851197889</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0006147469224728752</v>
+        <v>0.001972413994412392</v>
       </c>
       <c r="E23">
-        <v>0.06755830313418798</v>
+        <v>0.03048122972490219</v>
       </c>
       <c r="F23">
-        <v>0.7959880930480807</v>
+        <v>2.06310655350039</v>
       </c>
       <c r="G23">
-        <v>0.002327699349673376</v>
+        <v>0.0007092206776133564</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.157313308303145</v>
+        <v>3.760522856437007</v>
       </c>
       <c r="N23">
-        <v>1.719004489371116</v>
+        <v>3.030949154545056</v>
       </c>
       <c r="O23">
-        <v>2.528047760697177</v>
+        <v>6.508941182948888</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1765709331320835</v>
+        <v>0.3888447321520516</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.000549408566016929</v>
+        <v>0.00160842788125759</v>
       </c>
       <c r="E24">
-        <v>0.07133576038953926</v>
+        <v>0.02581168747893159</v>
       </c>
       <c r="F24">
-        <v>0.7238874250313643</v>
+        <v>1.740270840859694</v>
       </c>
       <c r="G24">
-        <v>0.002333528169105112</v>
+        <v>0.0007191467237318594</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9976908754013039</v>
+        <v>3.203858579568077</v>
       </c>
       <c r="N24">
-        <v>1.619276291812184</v>
+        <v>2.711507653111283</v>
       </c>
       <c r="O24">
-        <v>2.303328844109672</v>
+        <v>5.485602851056683</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1568257795625811</v>
+        <v>0.3201099413998065</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0004800818385852779</v>
+        <v>0.001267059953182326</v>
       </c>
       <c r="E25">
-        <v>0.07599532664092834</v>
+        <v>0.02381171897372703</v>
       </c>
       <c r="F25">
-        <v>0.6478255176706256</v>
+        <v>1.407254106214978</v>
       </c>
       <c r="G25">
-        <v>0.002340289355582686</v>
+        <v>0.0007301315631014538</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8251985613386239</v>
+        <v>2.613305025454139</v>
       </c>
       <c r="N25">
-        <v>1.513538423053916</v>
+        <v>2.373014014446085</v>
       </c>
       <c r="O25">
-        <v>2.066596419009386</v>
+        <v>4.432494992809779</v>
       </c>
     </row>
   </sheetData>
